--- a/biology/Zoologie/Épreuve_de_travail/Épreuve_de_travail.xlsx
+++ b/biology/Zoologie/Épreuve_de_travail/Épreuve_de_travail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89preuve_de_travail</t>
+          <t>Épreuve_de_travail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une épreuve de travail est un concours où les qualités de travail du chien ou du cheval sont jugées. Pour les chiens, les épreuves de travail sont organisées par un club canin et se closent par un brevet. Toutes les races ne peuvent pas concourir à une épreuve.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89preuve_de_travail</t>
+          <t>Épreuve_de_travail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Différentes épreuves récompensent :
 les chiens de défense ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89preuve_de_travail</t>
+          <t>Épreuve_de_travail</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Cheval</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail des canidés   Portail équestre                    </t>
         </is>
